--- a/docs/Self-Assessment.xlsx
+++ b/docs/Self-Assessment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianoroceo/eqa-UI-exam/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\comautomation\test_wdio\eqa-UI-exam\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C864E42-CA15-504D-AE15-181CA8DB267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7914D90B-4618-43BD-821D-0139578160B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60120" yWindow="5240" windowWidth="26000" windowHeight="19820" xr2:uid="{5AF992D8-3970-E840-BB78-D2E0A4AA53D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5AF992D8-3970-E840-BB78-D2E0A4AA53D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Error Screenshot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Criteria</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>Assessment</t>
+  </si>
+  <si>
+    <t>* I am not able to find collaborators please see the screenshot attched in error screenshot sheet</t>
   </si>
 </sst>
 </file>
@@ -654,6 +658,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>537707</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABFEE49-49F1-40AA-B109-6B8F22D7C3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="198120"/>
+          <a:ext cx="11266667" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,27 +1006,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5C6E65-EC9F-F34F-9889-6D745B9AEDD8}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.296875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -987,104 +1040,117 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(G3:G7)*25%</f>
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="24" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="Completed",0.2,F3="Partially Completed",0.1,F3="Not Completed",0,F3="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13">
         <f>SUM(G11:G15)*75%</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="24" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="Completed",0.2,F4="Partially Completed",0.1,F4="Not Completed",0,F4="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(G18:G20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="24" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="Completed",0.2,F5="Partially Completed",0.1,F5="Not Completed",0,F5="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3:C5)</f>
-        <v>0</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="24" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(F6="Completed",0.2,F6="Partially Completed",0.1,F6="Not Completed",0,F6="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="17" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.IFS(C6&gt;80%,"PASSED",C6=0%,"COMPLETE FORM TO GET RATING",C6&lt;80%,"FAILED")</f>
-        <v>COMPLETE FORM TO GET RATING</v>
+        <v>PASSED</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="24" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(F7="Completed",0.2,F7="Partially Completed",0.1,F7="Not Completed",0,F7="",0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="24"/>
-    </row>
-    <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="22" t="s">
         <v>3</v>
       </c>
@@ -1092,58 +1158,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="24" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(F11="Completed",0.2,F11="Partially Completed",0.05,F11="Not Completed",0,F11="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="24" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(F12="Completed",0.2,F12="Partially Completed",0.05,F12="Not Completed",0,F12="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="24" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(F13="Completed",0.2,F13="Partially Completed",0.05,F13="Not Completed",0,F13="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="24" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(F14="Completed",0.2,F14="Partially Completed",0.05,F14="Not Completed",0,F14="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="24" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(F15="Completed",0.2,F15="Partially Completed",0.05,F15="Not Completed",0,F15="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="5:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="23" t="s">
         <v>3</v>
       </c>
@@ -1151,34 +1227,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="24" cm="1">
         <f t="array" ref="G18">_xlfn.IFS(F18="Completed",0.4,F18="Partially Completed",0,F18="Not Completed",0,F18="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="E19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="24" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(F19="Completed",0.3,F19="Partially Completed",0,F19="Not Completed",0,F19="",0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G20" s="24" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(F20="Completed",0.3,F20="Partially Completed",0,F20="Not Completed",0,F20="",0)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1191,4 +1273,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB366C-55DC-4552-90B3-4B93C5693BAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>